--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_14_37.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_14_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3526662.29212704</v>
+        <v>3524327.180925061</v>
       </c>
     </row>
     <row r="7">
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>35.9524543521409</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>122.7299563688824</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
@@ -719,7 +719,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>56.30830983498181</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>135.8519995250952</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -877,10 +877,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -899,13 +899,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>411.547702772954</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>188.3797956750018</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>138.422775988213</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>56.01246561959145</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>23.94563726208646</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,25 +1102,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>34.8203780065441</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>129.5398680316079</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,19 +1291,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>120.6353666620236</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>157.7822070347172</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722634</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1537,16 +1537,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>21.90286287505371</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1619,10 +1619,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>109.0404882242265</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1813,22 +1813,22 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>174.7683347992599</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1853,13 +1853,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>136.5667167289879</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>126.9927435506632</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>1.799772605716619</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2713,13 +2713,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>7.61374123523328</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>216.5793400412178</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3430,19 +3430,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703266</v>
+        <v>140.7158229532356</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>104.8913819999782</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>46.13809394730835</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>240.06330988836</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>652.5759934195833</v>
+        <v>880.645441216167</v>
       </c>
       <c r="C2" t="n">
-        <v>652.5759934195833</v>
+        <v>880.645441216167</v>
       </c>
       <c r="D2" t="n">
-        <v>652.5759934195833</v>
+        <v>880.645441216167</v>
       </c>
       <c r="E2" t="n">
-        <v>652.5759934195833</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>241.5900886299757</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923561</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T2" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2100.01262627016</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V2" t="n">
-        <v>1768.949738926589</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1416.181083656475</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X2" t="n">
-        <v>1042.715325395395</v>
+        <v>1270.784773191979</v>
       </c>
       <c r="Y2" t="n">
-        <v>652.5759934195833</v>
+        <v>880.645441216167</v>
       </c>
     </row>
     <row r="3">
@@ -4389,46 +4389,46 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>684.9695361605189</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>979.6730931919907</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>1342.935112151211</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N3" t="n">
-        <v>1730.220240748156</v>
+        <v>1565.661695681274</v>
       </c>
       <c r="O3" t="n">
-        <v>2062.290675924318</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2309.473409756615</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,7 +4440,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4462,49 +4462,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>666.0018823909471</v>
+        <v>445.0465148290272</v>
       </c>
       <c r="C4" t="n">
-        <v>666.0018823909471</v>
+        <v>276.1103319011203</v>
       </c>
       <c r="D4" t="n">
-        <v>515.8852429786114</v>
+        <v>276.1103319011203</v>
       </c>
       <c r="E4" t="n">
-        <v>367.9721493962183</v>
+        <v>276.1103319011203</v>
       </c>
       <c r="F4" t="n">
-        <v>367.9721493962183</v>
+        <v>276.1103319011203</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>108.1238672093989</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
@@ -4513,25 +4513,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T4" t="n">
-        <v>1499.221878129957</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>1210.103540633795</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="V4" t="n">
-        <v>955.4190524279077</v>
+        <v>673.0360657270445</v>
       </c>
       <c r="W4" t="n">
-        <v>666.0018823909471</v>
+        <v>673.0360657270445</v>
       </c>
       <c r="X4" t="n">
-        <v>666.0018823909471</v>
+        <v>445.0465148290272</v>
       </c>
       <c r="Y4" t="n">
-        <v>666.0018823909471</v>
+        <v>445.0465148290272</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1632.688211171978</v>
+        <v>1267.498902304191</v>
       </c>
       <c r="C5" t="n">
-        <v>1263.725694231566</v>
+        <v>898.5363853637798</v>
       </c>
       <c r="D5" t="n">
-        <v>1263.725694231566</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="E5" t="n">
-        <v>877.9374416333219</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="F5" t="n">
-        <v>466.9515368437143</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G5" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.517185281608</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872912</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923561</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V5" t="n">
-        <v>2372.056706506214</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="W5" t="n">
-        <v>2019.2880512361</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="X5" t="n">
-        <v>2019.2880512361</v>
+        <v>2044.238074344125</v>
       </c>
       <c r="Y5" t="n">
-        <v>2019.2880512361</v>
+        <v>1654.098742368313</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>684.9695361605189</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>979.6730931919907</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>1342.935112151211</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1730.220240748156</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>2062.290675924318</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,49 +4699,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1006.01552520271</v>
+        <v>444.7476822882288</v>
       </c>
       <c r="C7" t="n">
-        <v>837.0793422748035</v>
+        <v>275.8114993603219</v>
       </c>
       <c r="D7" t="n">
-        <v>686.9627028624677</v>
+        <v>275.8114993603219</v>
       </c>
       <c r="E7" t="n">
-        <v>539.0496092800746</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F7" t="n">
-        <v>392.1596617821642</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>224.1731970904428</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>75.43429895394902</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4750,25 +4750,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="V7" t="n">
-        <v>1636.446120074497</v>
+        <v>962.1544032232067</v>
       </c>
       <c r="W7" t="n">
-        <v>1636.446120074497</v>
+        <v>672.7372331862462</v>
       </c>
       <c r="X7" t="n">
-        <v>1408.45656917648</v>
+        <v>444.7476822882288</v>
       </c>
       <c r="Y7" t="n">
-        <v>1187.66399003295</v>
+        <v>444.7476822882288</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1238.038871968309</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C8" t="n">
-        <v>1238.038871968309</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>1238.038871968309</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>852.2506193700642</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>441.2647145804567</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4802,7 +4802,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883007</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539436</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.243802269322</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2014.778044008242</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="Y8" t="n">
-        <v>1624.63871203243</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="9">
@@ -4872,31 +4872,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
         <v>66.51211643218342</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1767.918581386758</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1478.501411349798</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X10" t="n">
-        <v>1250.51186045178</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="Y10" t="n">
-        <v>1029.71928130825</v>
+        <v>370.0144869816389</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>923.067041434951</v>
       </c>
       <c r="M12" t="n">
-        <v>840.8417932021785</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1468.439756756785</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O12" t="n">
-        <v>2020.349486996072</v>
+        <v>2072.355259300789</v>
       </c>
       <c r="P12" t="n">
-        <v>2443.97263649114</v>
+        <v>2495.978408795857</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>198.027470314254</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5255,31 +5255,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5294,31 +5294,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,22 +5349,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>352.5519571452613</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452613</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718132</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
         <v>1577.52840832642</v>
@@ -5410,13 +5410,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E16" t="n">
         <v>631.7012443408905</v>
@@ -5428,10 +5428,10 @@
         <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5461,25 +5461,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1983.7822433412</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="17">
@@ -5492,70 +5492,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245705</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5695,28 +5695,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5732,46 +5732,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5832,25 +5832,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438171</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>766.1780053015053</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>618.2649117191122</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>471.3749642212018</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>304.1788649360818</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="23">
@@ -5975,31 +5975,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6072,22 +6072,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452613</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718132</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6212,34 +6212,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6303,25 +6303,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6458,31 +6458,31 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6546,22 +6546,22 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>565.7099969556949</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>415.5933575433592</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>415.5933575433592</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>268.7034100454488</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>101.5073107603287</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,52 +6686,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123003</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K33" t="n">
         <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>697.5276345711973</v>
       </c>
     </row>
     <row r="35">
@@ -6917,13 +6917,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,25 +6932,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7017,25 +7017,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>923.4916164683287</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>754.5554335404219</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>754.5554335404219</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>606.6423399580287</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>459.7523924601184</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="38">
@@ -7160,22 +7160,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7248,19 +7248,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
         <v>1307.627092998424</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7403,10 +7403,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7494,16 +7494,16 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>680.0291294438176</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C43" t="n">
-        <v>407.9027098310023</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="D43" t="n">
-        <v>407.9027098310023</v>
+        <v>597.2418223735984</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>282.1326295060853</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>140.4207983482833</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7612,7 +7612,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="44">
@@ -7622,43 +7622,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468417</v>
+        <v>2104.342122433612</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7843,13 +7843,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8067,19 +8067,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>224.3355197601772</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>305.1601501039158</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>114.3555089013349</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>319.4183821282439</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,13 +8310,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>138.9393975111051</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>118.3918499711702</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>58.20633287440134</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23701,22 +23701,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>111.4161395899842</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,25 +23887,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>12.04875628922446</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856552</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>13.30196929556064</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>144.634190040853</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.4949402405072</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24601,13 +24601,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>44.73700564187209</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>132.6809716109906</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>2.005313310876971</v>
       </c>
     </row>
     <row r="35">
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194223</v>
+        <v>24.80831533903321</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,16 +25594,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25783,28 +25783,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>62.35543909864963</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>35.12774237125718</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26026,19 +26026,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>674435.1602544276</v>
+        <v>674435.1602544275</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>674435.1602544277</v>
+        <v>674435.1602544275</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>674435.1602544275</v>
+        <v>674435.1602544276</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>674435.1602544276</v>
+        <v>674435.1602544275</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>674435.1602544275</v>
+        <v>674435.1602544276</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>674435.1602544275</v>
+        <v>674435.1602544276</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>674435.1602544277</v>
+        <v>674435.1602544275</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>674435.1602544275</v>
+        <v>674435.1602544276</v>
       </c>
     </row>
     <row r="16">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244619</v>
+        <v>759463.6371244624</v>
       </c>
       <c r="C2" t="n">
+        <v>759463.6371244626</v>
+      </c>
+      <c r="D2" t="n">
         <v>759463.6371244622</v>
-      </c>
-      <c r="D2" t="n">
-        <v>759463.6371244624</v>
       </c>
       <c r="E2" t="n">
         <v>746610.6047132554</v>
@@ -26326,13 +26326,13 @@
         <v>746610.6047132555</v>
       </c>
       <c r="G2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="H2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="I2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="J2" t="n">
         <v>746610.6047132552</v>
@@ -26344,16 +26344,16 @@
         <v>746610.6047132552</v>
       </c>
       <c r="M2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="N2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="O2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132551</v>
       </c>
       <c r="P2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.6047132552</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403378</v>
+        <v>192627.140440338</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073549</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.594527697714511e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099824</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819074</v>
+        <v>48293.97000819083</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551175</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,22 +26421,22 @@
         <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810789</v>
+        <v>88524.23512810787</v>
       </c>
       <c r="E4" t="n">
-        <v>9337.200356756512</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="F4" t="n">
-        <v>9337.200356756573</v>
+        <v>9337.200356756613</v>
       </c>
       <c r="G4" t="n">
-        <v>9337.20035675657</v>
+        <v>9337.200356756613</v>
       </c>
       <c r="H4" t="n">
-        <v>9337.200356756613</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="I4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756603</v>
       </c>
       <c r="J4" t="n">
         <v>9337.200356756592</v>
@@ -26445,16 +26445,16 @@
         <v>9337.200356756592</v>
       </c>
       <c r="L4" t="n">
-        <v>9337.200356756575</v>
+        <v>9337.200356756573</v>
       </c>
       <c r="M4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756613</v>
       </c>
       <c r="N4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="O4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="P4" t="n">
         <v>9337.200356756592</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-584952.1925834052</v>
+        <v>-584952.1925834042</v>
       </c>
       <c r="C6" t="n">
-        <v>529799.590992515</v>
+        <v>529799.5909925154</v>
       </c>
       <c r="D6" t="n">
-        <v>370378.3209946235</v>
+        <v>370378.320994623</v>
       </c>
       <c r="E6" t="n">
-        <v>310738.4127252364</v>
+        <v>310703.6747998011</v>
       </c>
       <c r="F6" t="n">
-        <v>636150.8745325918</v>
+        <v>636116.1366071559</v>
       </c>
       <c r="G6" t="n">
-        <v>636150.8745325918</v>
+        <v>636116.1366071559</v>
       </c>
       <c r="H6" t="n">
-        <v>636150.8745325917</v>
+        <v>636116.1366071563</v>
       </c>
       <c r="I6" t="n">
-        <v>636150.8745325917</v>
+        <v>636116.1366071561</v>
       </c>
       <c r="J6" t="n">
-        <v>468545.696722609</v>
+        <v>468510.9587971732</v>
       </c>
       <c r="K6" t="n">
-        <v>636150.8745325917</v>
+        <v>636116.1366071559</v>
       </c>
       <c r="L6" t="n">
-        <v>587856.9045244008</v>
+        <v>587822.1665989649</v>
       </c>
       <c r="M6" t="n">
-        <v>551095.8465970799</v>
+        <v>551061.1086716442</v>
       </c>
       <c r="N6" t="n">
-        <v>636150.8745325919</v>
+        <v>636116.1366071561</v>
       </c>
       <c r="O6" t="n">
-        <v>636150.8745325917</v>
+        <v>636116.1366071558</v>
       </c>
       <c r="P6" t="n">
-        <v>636150.8745325919</v>
+        <v>636116.1366071559</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26817,7 +26817,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26957,19 +26957,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.711808475759</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26984,7 +26984,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.816623302254</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022542</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.816623302254</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,16 +27385,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>345.9779157201209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>288.8177464040716</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27439,7 +27439,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27537,13 +27537,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,7 +27552,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>90.94319932014707</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27585,10 +27585,10 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>84.89669647211676</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27597,10 +27597,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27619,13 +27619,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>139.3724627951331</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>231.308324690256</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>90.42149702697773</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>80.8509579418141</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,25 +27822,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>376.1013476469093</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>240.1912326468612</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,19 +28011,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>24.7856813609076</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>94.3554362891108</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28096,7 +28096,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.668609388591958e-12</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-6.184639007818955e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29092,7 +29092,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29800,7 +29800,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,34 +31370,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
-        <v>250.1723312270667</v>
+        <v>160.6314956130967</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,46 +31911,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32011,7 +32011,7 @@
         <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
         <v>790.8204499236508</v>
@@ -32075,19 +32075,19 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>399.190220890813</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>641.2555750770849</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437244</v>
@@ -32312,10 +32312,10 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>175.6052721551105</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473073</v>
@@ -32324,19 +32324,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>346.9084613860364</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32552,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>460.9249101897664</v>
       </c>
       <c r="M21" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32792,34 +32792,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>291.8940795642898</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32956,7 +32956,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
         <v>926.5868626460027</v>
@@ -33023,7 +33023,7 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33035,16 +33035,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>230.1272937575231</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33263,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>316.3837382263848</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33500,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>416.7024900153327</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33737,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>485.1127032082907</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,22 +33968,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>528.7932908500043</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -34214,19 +34214,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>240.4469701760392</v>
+        <v>622.4211036182646</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34369,7 +34369,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34442,19 +34442,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34463,13 +34463,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>314.5984986256103</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>615.5326193530511</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>230.8362312321895</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>617.098742766094</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>388.6189266346374</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
-        <v>110.1905571410452</v>
+        <v>20.64972152707519</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35659,7 +35659,7 @@
         <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243157</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
@@ -35723,19 +35723,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>261.348781916454</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>509.9138629937516</v>
       </c>
       <c r="O15" t="n">
         <v>557.48457599928</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>37.76383318075146</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.3288951674331</v>
@@ -35972,19 +35972,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>212.9340539717061</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>322.3705304098922</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,25 +36440,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>261.348781916454</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36604,7 +36604,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O26" t="n">
         <v>696.488651224316</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36683,16 +36683,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="O27" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875408</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>182.4093308120545</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>285.3607779319995</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875408</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>342.5164587638463</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,22 +37616,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>386.659256927986</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37862,19 +37862,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>101.892590396165</v>
+        <v>483.8667238383904</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -38017,7 +38017,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38090,19 +38090,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38111,13 +38111,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>180.6240912112801</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
